--- a/GestorReceitas/Setembro/RecebimentosNumerario.xlsx
+++ b/GestorReceitas/Setembro/RecebimentosNumerario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A4211-2E6D-41E8-949C-7BC3E57295B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB10C51-33FC-49C5-BB53-245A49E4BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecebimentosNumerário" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="161">
   <si>
     <t>Nome</t>
   </si>
@@ -854,7 +854,7 @@
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -901,21 +901,6 @@
       <c r="C2">
         <v>300362838</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -927,21 +912,6 @@
       <c r="C3">
         <v>300813775</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -953,21 +923,6 @@
       <c r="C4">
         <v>297621556</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -979,21 +934,6 @@
       <c r="C5">
         <v>305801384</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -1005,21 +945,6 @@
       <c r="C6">
         <v>304866814</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -1031,21 +956,6 @@
       <c r="C7">
         <v>306021153</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1057,21 +967,6 @@
       <c r="C8">
         <v>304586153</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1083,21 +978,6 @@
       <c r="C9">
         <v>304289027</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -1108,21 +988,6 @@
       </c>
       <c r="C10">
         <v>304693057</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">

--- a/GestorReceitas/Setembro/RecebimentosNumerario.xlsx
+++ b/GestorReceitas/Setembro/RecebimentosNumerario.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB10C51-33FC-49C5-BB53-245A49E4BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A1D15-185F-4733-A05C-7A2035ADF875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecebimentosNumerário" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="161">
   <si>
     <t>Nome</t>
   </si>
@@ -535,8 +548,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +868,8 @@
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,7 +877,8 @@
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -901,6 +917,15 @@
       <c r="C2">
         <v>300362838</v>
       </c>
+      <c r="D2" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F2">
+        <v>7.5</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -945,6 +970,16 @@
       <c r="C6">
         <v>304866814</v>
       </c>
+      <c r="D6" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E6">
+        <f>25+125</f>
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -967,6 +1002,15 @@
       <c r="C8">
         <v>304586153</v>
       </c>
+      <c r="D8" s="1">
+        <v>45551</v>
+      </c>
+      <c r="F8">
+        <v>7.5</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1494,8 +1538,8 @@
       <c r="C30">
         <v>298828626</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
+      <c r="D30" s="1">
+        <v>45551</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1506,8 +1550,8 @@
       <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="H30" t="s">
-        <v>10</v>
+      <c r="H30">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1777,8 +1821,8 @@
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" t="s">
-        <v>44</v>
+      <c r="C41">
+        <v>303976047</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1858,8 +1902,8 @@
       <c r="C44">
         <v>301489769</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
+      <c r="D44" s="1">
+        <v>45551</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1870,8 +1914,8 @@
       <c r="G44" t="s">
         <v>10</v>
       </c>
-      <c r="H44" t="s">
-        <v>10</v>
+      <c r="H44">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2768,8 +2812,8 @@
       <c r="C79">
         <v>290428718</v>
       </c>
-      <c r="D79" t="s">
-        <v>10</v>
+      <c r="D79" s="1">
+        <v>45565</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -2780,8 +2824,8 @@
       <c r="G79" t="s">
         <v>10</v>
       </c>
-      <c r="H79" t="s">
-        <v>10</v>
+      <c r="H79">
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2947,8 +2991,8 @@
       <c r="B86" t="s">
         <v>83</v>
       </c>
-      <c r="C86" t="s">
-        <v>44</v>
+      <c r="C86">
+        <v>328233382</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -3236,19 +3280,16 @@
       <c r="C97">
         <v>290072883</v>
       </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
+      <c r="D97" s="1">
+        <v>45551</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>7.5</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3626,20 +3667,20 @@
       <c r="C112">
         <v>289567882</v>
       </c>
-      <c r="D112" t="s">
-        <v>10</v>
+      <c r="D112" s="1">
+        <v>45552</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
-      <c r="F112" t="s">
-        <v>10</v>
+      <c r="F112">
+        <v>7.5</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
       </c>
-      <c r="H112" t="s">
-        <v>10</v>
+      <c r="H112">
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:8">
